--- a/plan/프로젝트관리.xlsx
+++ b/plan/프로젝트관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -1715,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,57 +1833,180 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,134 +2016,17 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2058,10 +2064,10 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFC286"/>
+      <color rgb="FFB4C6A6"/>
       <color rgb="FFE1FFE1"/>
-      <color rgb="FFFFC286"/>
       <color rgb="FF66806A"/>
-      <color rgb="FFB4C6A6"/>
       <color rgb="FFFFF1AF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFFFF"/>
@@ -2370,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -2380,7 +2386,7 @@
     <col min="2" max="2" width="0.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="4" customWidth="1"/>
-    <col min="5" max="18" width="3.125" style="81" customWidth="1"/>
+    <col min="5" max="18" width="3.125" style="46" customWidth="1"/>
     <col min="19" max="19" width="0.75" style="4" customWidth="1"/>
     <col min="20" max="16384" width="2.25" style="4"/>
   </cols>
@@ -2403,47 +2409,47 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -2465,7 +2471,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="88"/>
+      <c r="R4" s="53"/>
       <c r="S4" s="14"/>
       <c r="T4" s="5"/>
     </row>
@@ -2484,53 +2490,53 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
       <c r="S5" s="18"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="90"/>
+      <c r="T6" s="55"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="80">
+      <c r="E7" s="45">
         <v>24</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="45">
         <v>25</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="45">
         <v>26</v>
       </c>
       <c r="H7" s="12">
@@ -2566,7 +2572,7 @@
       <c r="R7" s="12">
         <v>7</v>
       </c>
-      <c r="S7" s="89"/>
+      <c r="S7" s="54"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2598,19 +2604,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="92"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="57"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15"/>
       <c r="T9" s="5"/>
@@ -2620,19 +2626,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="92"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="6"/>
       <c r="S10" s="15"/>
       <c r="T10" s="5"/>
@@ -2640,23 +2646,23 @@
     <row r="11" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="73" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="92"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="6"/>
       <c r="S11" s="15"/>
       <c r="T11" s="5"/>
@@ -2664,21 +2670,21 @@
     <row r="12" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="92"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="57"/>
       <c r="R12" s="6"/>
       <c r="S12" s="15"/>
       <c r="T12" s="5"/>
@@ -2688,19 +2694,19 @@
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="92"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="57"/>
       <c r="R13" s="6"/>
       <c r="S13" s="15"/>
       <c r="T13" s="5"/>
@@ -2708,23 +2714,23 @@
     <row r="14" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="92"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="57"/>
       <c r="R14" s="6"/>
       <c r="S14" s="15"/>
       <c r="T14" s="5"/>
@@ -2732,21 +2738,21 @@
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="92"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="57"/>
       <c r="R15" s="6"/>
       <c r="S15" s="15"/>
       <c r="T15" s="5"/>
@@ -2756,19 +2762,19 @@
       <c r="B16" s="6"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="92"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="57"/>
       <c r="R16" s="6"/>
       <c r="S16" s="15"/>
       <c r="T16" s="5"/>
@@ -2776,23 +2782,23 @@
     <row r="17" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="73" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="92"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="57"/>
       <c r="R17" s="6"/>
       <c r="S17" s="15"/>
       <c r="T17" s="5"/>
@@ -2800,21 +2806,21 @@
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="92"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="57"/>
       <c r="R18" s="6"/>
       <c r="S18" s="15"/>
       <c r="T18" s="5"/>
@@ -2824,19 +2830,19 @@
       <c r="B19" s="6"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="92"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="6"/>
       <c r="S19" s="15"/>
       <c r="T19" s="5"/>
@@ -2848,19 +2854,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="92"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="57"/>
       <c r="R20" s="6"/>
       <c r="S20" s="15"/>
       <c r="T20" s="5"/>
@@ -2868,23 +2874,23 @@
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="75" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="92"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="6"/>
       <c r="S21" s="15"/>
       <c r="T21" s="5"/>
@@ -2892,21 +2898,21 @@
     <row r="22" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="92"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="57"/>
       <c r="R22" s="6"/>
       <c r="S22" s="15"/>
       <c r="T22" s="5"/>
@@ -2916,19 +2922,19 @@
       <c r="B23" s="6"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="92"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="57"/>
       <c r="R23" s="6"/>
       <c r="S23" s="15"/>
       <c r="T23" s="5"/>
@@ -2936,23 +2942,23 @@
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="75" t="s">
         <v>266</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="92"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="57"/>
       <c r="R24" s="6"/>
       <c r="S24" s="15"/>
       <c r="T24" s="5"/>
@@ -2960,21 +2966,21 @@
     <row r="25" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="92"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="57"/>
       <c r="R25" s="6"/>
       <c r="S25" s="15"/>
       <c r="T25" s="5"/>
@@ -2984,19 +2990,19 @@
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="92"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="57"/>
       <c r="R26" s="6"/>
       <c r="S26" s="15"/>
       <c r="T26" s="5"/>
@@ -3004,23 +3010,23 @@
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="75" t="s">
         <v>265</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="92"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="57"/>
       <c r="R27" s="6"/>
       <c r="S27" s="15"/>
       <c r="T27" s="5"/>
@@ -3028,21 +3034,21 @@
     <row r="28" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="93"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="10"/>
       <c r="S28" s="15"/>
       <c r="T28" s="5"/>
@@ -3052,19 +3058,19 @@
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="92"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="6"/>
       <c r="S29" s="15"/>
       <c r="T29" s="5"/>
@@ -3072,23 +3078,23 @@
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="75" t="s">
         <v>151</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="92"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="57"/>
       <c r="R30" s="6"/>
       <c r="S30" s="15"/>
       <c r="T30" s="5"/>
@@ -3096,21 +3102,21 @@
     <row r="31" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="44"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="92"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="57"/>
       <c r="R31" s="6"/>
       <c r="S31" s="15"/>
       <c r="T31" s="5"/>
@@ -3120,19 +3126,19 @@
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="92"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="57"/>
       <c r="R32" s="6"/>
       <c r="S32" s="15"/>
       <c r="T32" s="5"/>
@@ -3140,23 +3146,23 @@
     <row r="33" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="75" t="s">
         <v>268</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="92"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="57"/>
       <c r="R33" s="6"/>
       <c r="S33" s="15"/>
       <c r="T33" s="5"/>
@@ -3164,21 +3170,21 @@
     <row r="34" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="92"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="57"/>
       <c r="R34" s="6"/>
       <c r="S34" s="15"/>
       <c r="T34" s="5"/>
@@ -3188,19 +3194,19 @@
       <c r="B35" s="6"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="92"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="57"/>
       <c r="R35" s="6"/>
       <c r="S35" s="15"/>
       <c r="T35" s="5"/>
@@ -3208,23 +3214,23 @@
     <row r="36" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="75" t="s">
         <v>267</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="92"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="57"/>
       <c r="R36" s="6"/>
       <c r="S36" s="15"/>
       <c r="T36" s="5"/>
@@ -3232,21 +3238,21 @@
     <row r="37" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="44"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="92"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="57"/>
       <c r="R37" s="6"/>
       <c r="S37" s="15"/>
       <c r="T37" s="5"/>
@@ -3256,19 +3262,19 @@
       <c r="B38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="92"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="57"/>
       <c r="R38" s="6"/>
       <c r="S38" s="15"/>
       <c r="T38" s="5"/>
@@ -3280,19 +3286,19 @@
         <v>25</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="92"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="57"/>
       <c r="R39" s="6"/>
       <c r="S39" s="15"/>
       <c r="T39" s="5"/>
@@ -3300,23 +3306,23 @@
     <row r="40" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="76" t="s">
         <v>269</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="92"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="57"/>
       <c r="R40" s="6"/>
       <c r="S40" s="15"/>
       <c r="T40" s="5"/>
@@ -3324,21 +3330,21 @@
     <row r="41" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="92"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="57"/>
       <c r="R41" s="6"/>
       <c r="S41" s="15"/>
       <c r="T41" s="5"/>
@@ -3348,19 +3354,19 @@
       <c r="B42" s="6"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="92"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="57"/>
       <c r="R42" s="6"/>
       <c r="S42" s="15"/>
       <c r="T42" s="5"/>
@@ -3368,23 +3374,23 @@
     <row r="43" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="76" t="s">
         <v>271</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="92"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="57"/>
       <c r="R43" s="6"/>
       <c r="S43" s="15"/>
       <c r="T43" s="5"/>
@@ -3392,21 +3398,21 @@
     <row r="44" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="92"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="57"/>
       <c r="R44" s="6"/>
       <c r="S44" s="15"/>
       <c r="T44" s="5"/>
@@ -3416,19 +3422,19 @@
       <c r="B45" s="6"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="92"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="57"/>
       <c r="R45" s="6"/>
       <c r="S45" s="15"/>
       <c r="T45" s="5"/>
@@ -3436,23 +3442,23 @@
     <row r="46" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="76" t="s">
         <v>270</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="92"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="57"/>
       <c r="R46" s="6"/>
       <c r="S46" s="15"/>
       <c r="T46" s="5"/>
@@ -3460,21 +3466,21 @@
     <row r="47" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="92"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="57"/>
       <c r="R47" s="6"/>
       <c r="S47" s="15"/>
       <c r="T47" s="5"/>
@@ -3484,19 +3490,19 @@
       <c r="B48" s="6"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="92"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="57"/>
       <c r="R48" s="6"/>
       <c r="S48" s="15"/>
       <c r="T48" s="5"/>
@@ -3504,23 +3510,23 @@
     <row r="49" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="76" t="s">
         <v>272</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="92"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="57"/>
       <c r="R49" s="6"/>
       <c r="S49" s="15"/>
       <c r="T49" s="5"/>
@@ -3528,21 +3534,21 @@
     <row r="50" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="92"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="57"/>
       <c r="R50" s="6"/>
       <c r="S50" s="15"/>
       <c r="T50" s="5"/>
@@ -3552,19 +3558,19 @@
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="92"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="57"/>
       <c r="R51" s="6"/>
       <c r="S51" s="15"/>
       <c r="T51" s="5"/>
@@ -3576,19 +3582,19 @@
         <v>23</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="92"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="57"/>
       <c r="R52" s="6"/>
       <c r="S52" s="15"/>
       <c r="T52" s="5"/>
@@ -3596,23 +3602,23 @@
     <row r="53" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="92"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="57"/>
       <c r="R53" s="6"/>
       <c r="S53" s="15"/>
       <c r="T53" s="5"/>
@@ -3620,21 +3626,21 @@
     <row r="54" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="92"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="57"/>
       <c r="R54" s="6"/>
       <c r="S54" s="15"/>
       <c r="T54" s="5"/>
@@ -3644,19 +3650,19 @@
       <c r="B55" s="6"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="92"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="57"/>
       <c r="R55" s="6"/>
       <c r="S55" s="15"/>
       <c r="T55" s="5"/>
@@ -3664,23 +3670,23 @@
     <row r="56" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="74" t="s">
         <v>273</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="92"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="57"/>
       <c r="R56" s="6"/>
       <c r="S56" s="15"/>
       <c r="T56" s="5"/>
@@ -3688,21 +3694,21 @@
     <row r="57" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="92"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="57"/>
       <c r="R57" s="6"/>
       <c r="S57" s="15"/>
       <c r="T57" s="5"/>
@@ -3712,19 +3718,19 @@
       <c r="B58" s="6"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="92"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="57"/>
       <c r="R58" s="6"/>
       <c r="S58" s="15"/>
       <c r="T58" s="5"/>
@@ -3732,23 +3738,23 @@
     <row r="59" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="74" t="s">
         <v>274</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="92"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="57"/>
       <c r="R59" s="6"/>
       <c r="S59" s="15"/>
       <c r="T59" s="5"/>
@@ -3756,21 +3762,21 @@
     <row r="60" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="92"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="57"/>
       <c r="R60" s="6"/>
       <c r="S60" s="15"/>
       <c r="T60" s="5"/>
@@ -3780,19 +3786,19 @@
       <c r="B61" s="6"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="92"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="57"/>
       <c r="R61" s="6"/>
       <c r="S61" s="15"/>
       <c r="T61" s="5"/>
@@ -3800,23 +3806,23 @@
     <row r="62" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="74" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="92"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="57"/>
       <c r="R62" s="6"/>
       <c r="S62" s="15"/>
       <c r="T62" s="5"/>
@@ -3824,21 +3830,21 @@
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="82"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="97"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="82"/>
-      <c r="Q63" s="92"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="57"/>
       <c r="R63" s="6"/>
       <c r="S63" s="15"/>
       <c r="T63" s="5"/>
@@ -3848,19 +3854,19 @@
       <c r="B64" s="6"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="82"/>
-      <c r="Q64" s="92"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="57"/>
       <c r="R64" s="6"/>
       <c r="S64" s="15"/>
       <c r="T64" s="5"/>
@@ -3868,23 +3874,23 @@
     <row r="65" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="92"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="57"/>
       <c r="R65" s="6"/>
       <c r="S65" s="15"/>
       <c r="T65" s="5"/>
@@ -3892,21 +3898,21 @@
     <row r="66" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="41"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="82"/>
-      <c r="Q66" s="92"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="57"/>
       <c r="R66" s="6"/>
       <c r="S66" s="15"/>
       <c r="T66" s="5"/>
@@ -3964,18 +3970,18 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
       <c r="K69" s="6"/>
       <c r="L69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M69" s="95"/>
+      <c r="M69" s="60"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="39" t="s">
+      <c r="O69" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="39"/>
+      <c r="P69" s="77"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="6"/>
       <c r="S69" s="5"/>
@@ -4004,12 +4010,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I69:J69"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4022,12 +4028,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4056,7 +4062,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="80" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4067,7 +4073,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4079,7 +4085,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4094,7 +4100,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4180,7 @@
       <c r="C1" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="71"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4186,7 +4192,7 @@
       <c r="C2" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4198,7 +4204,7 @@
       <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4210,7 +4216,7 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -4219,7 +4225,7 @@
       <c r="C5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
@@ -4235,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4280,16 +4286,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="100" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -4302,10 +4308,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="31" t="s">
         <v>71</v>
       </c>
@@ -4318,12 +4324,12 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="100" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -4336,10 +4342,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="31" t="s">
         <v>73</v>
       </c>
@@ -4354,16 +4360,16 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="94" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -4376,10 +4382,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="32" t="s">
         <v>294</v>
       </c>
@@ -4394,10 +4400,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="32" t="s">
         <v>76</v>
       </c>
@@ -4412,12 +4418,12 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="53" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="94" t="s">
         <v>105</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -4430,10 +4436,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="32" t="s">
         <v>107</v>
       </c>
@@ -4446,8 +4452,8 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="32" t="s">
         <v>66</v>
       </c>
@@ -4466,8 +4472,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="32" t="s">
         <v>68</v>
       </c>
@@ -4484,8 +4490,8 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="62"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="94" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -4506,40 +4512,40 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53" t="s">
+      <c r="B15" s="92"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="94" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="32" t="s">
         <v>93</v>
       </c>
@@ -4560,8 +4566,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="91" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -4582,12 +4588,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="53" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="94" t="s">
         <v>243</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -4602,10 +4608,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="32" t="s">
         <v>248</v>
       </c>
@@ -4618,12 +4624,12 @@
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="53" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="94" t="s">
         <v>244</v>
       </c>
       <c r="F21" s="32" t="s">
@@ -4640,10 +4646,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="32" t="s">
         <v>260</v>
       </c>
@@ -4656,8 +4662,8 @@
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="36" t="s">
         <v>245</v>
       </c>
@@ -4676,12 +4682,12 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="53" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="32" t="s">
@@ -4696,10 +4702,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
       <c r="F25" s="32" t="s">
         <v>99</v>
       </c>
@@ -4712,12 +4718,12 @@
       <c r="I25" s="32"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="32" t="s">
@@ -4732,10 +4738,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="32" t="s">
         <v>117</v>
       </c>
@@ -4748,8 +4754,8 @@
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="32" t="s">
         <v>119</v>
       </c>
@@ -4766,10 +4772,10 @@
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="83" t="s">
         <v>143</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -4792,12 +4798,12 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="59" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="81" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="33" t="s">
@@ -4814,10 +4820,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="33" t="s">
         <v>154</v>
       </c>
@@ -4830,8 +4836,8 @@
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="83" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -4854,8 +4860,8 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="33" t="s">
         <v>158</v>
       </c>
@@ -4876,8 +4882,8 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="33" t="s">
         <v>177</v>
       </c>
@@ -4890,8 +4896,8 @@
       <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="33" t="s">
         <v>159</v>
       </c>
@@ -4912,8 +4918,8 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="33" t="s">
         <v>179</v>
       </c>
@@ -4926,8 +4932,8 @@
       <c r="I36" s="33"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="33" t="s">
         <v>167</v>
       </c>
@@ -4948,14 +4954,14 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="68" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="81" t="s">
         <v>181</v>
       </c>
       <c r="F38" s="33" t="s">
@@ -4970,10 +4976,10 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="33" t="s">
         <v>182</v>
       </c>
@@ -4986,12 +4992,12 @@
       <c r="I39" s="33"/>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="59" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="81" t="s">
         <v>189</v>
       </c>
       <c r="F40" s="33" t="s">
@@ -5008,10 +5014,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="33" t="s">
         <v>192</v>
       </c>
@@ -5024,10 +5030,10 @@
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="44" t="s">
         <v>281</v>
       </c>
       <c r="D42" s="38" t="s">
@@ -5048,8 +5054,8 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="77"/>
-      <c r="C43" s="78" t="s">
+      <c r="B43" s="89"/>
+      <c r="C43" s="88" t="s">
         <v>196</v>
       </c>
       <c r="D43" s="38" t="s">
@@ -5072,12 +5078,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="64" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="86" t="s">
         <v>204</v>
       </c>
       <c r="F44" s="37" t="s">
@@ -5094,10 +5100,10 @@
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="37" t="s">
         <v>207</v>
       </c>
@@ -5110,12 +5116,12 @@
       <c r="I45" s="37"/>
     </row>
     <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="64" t="s">
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="86" t="s">
         <v>210</v>
       </c>
       <c r="F46" s="37" t="s">
@@ -5132,10 +5138,10 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="37" t="s">
         <v>219</v>
       </c>
@@ -5148,9 +5154,9 @@
       <c r="I47" s="37"/>
     </row>
     <row r="48" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="64" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="86" t="s">
         <v>222</v>
       </c>
       <c r="E48" s="38" t="s">
@@ -5168,9 +5174,9 @@
       <c r="I48" s="37"/>
     </row>
     <row r="49" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="65"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="87"/>
       <c r="E49" s="38" t="s">
         <v>240</v>
       </c>
@@ -5188,8 +5194,8 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="37" t="s">
         <v>221</v>
       </c>
@@ -5208,8 +5214,8 @@
       <c r="I50" s="37"/>
     </row>
     <row r="51" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="37" t="s">
         <v>236</v>
       </c>
@@ -5228,8 +5234,8 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="38" t="s">
         <v>229</v>
       </c>
@@ -5248,8 +5254,8 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="77"/>
-      <c r="C53" s="79"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="37" t="s">
         <v>232</v>
       </c>
@@ -5268,8 +5274,8 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="77"/>
-      <c r="C54" s="78" t="s">
+      <c r="B54" s="89"/>
+      <c r="C54" s="88" t="s">
         <v>239</v>
       </c>
       <c r="D54" s="37" t="s">
@@ -5290,55 +5296,90 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="77"/>
-      <c r="C55" s="79"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="100" t="s">
+      <c r="E55" s="65" t="s">
         <v>138</v>
       </c>
       <c r="F55" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="100"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="37" t="s">
         <v>140</v>
       </c>
       <c r="I55" s="37"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="37" t="s">
         <v>276</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="E56" s="100" t="s">
+      <c r="E56" s="65" t="s">
         <v>278</v>
       </c>
       <c r="F56" s="37" t="s">
         <v>160</v>
       </c>
       <c r="G56" s="37"/>
-      <c r="H56" s="100" t="s">
+      <c r="H56" s="65" t="s">
         <v>279</v>
       </c>
       <c r="I56" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="J56" s="98"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="99"/>
-      <c r="E57" s="101"/>
-      <c r="H57" s="101"/>
+      <c r="C57" s="64"/>
+      <c r="E57" s="66"/>
+      <c r="H57" s="66"/>
     </row>
     <row r="63" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="C18:C28"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="C38:C41"/>
@@ -5346,45 +5387,10 @@
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="C43:C53"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/프로젝트관리.xlsx
+++ b/plan/프로젝트관리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="296">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,10 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성 글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내 작성 글 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1099,10 +1095,6 @@
   <si>
     <t>프로젝트명 일정
 (2022.06.24~2022.07.07)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 여행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1917,6 +1909,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1935,30 +1954,51 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,54 +2019,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2377,7 +2369,7 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -2409,47 +2401,47 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="B2" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -2500,35 +2492,35 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
       <c r="S6" s="20"/>
       <c r="T6" s="55"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="21"/>
       <c r="E7" s="45">
         <v>24</v>
@@ -2650,7 +2642,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="103"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="47"/>
       <c r="G11" s="49"/>
       <c r="H11" s="47"/>
@@ -2714,12 +2706,12 @@
     <row r="14" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="76" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="49"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -2738,7 +2730,7 @@
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="9"/>
       <c r="E15" s="61"/>
       <c r="F15" s="61"/>
@@ -2786,8 +2778,8 @@
         <v>21</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="49"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -2874,14 +2866,14 @@
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="102"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
@@ -2898,7 +2890,7 @@
     <row r="22" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="75"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="9"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
@@ -2942,15 +2934,15 @@
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="75" t="s">
-        <v>266</v>
+      <c r="C24" s="74" t="s">
+        <v>264</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="47"/>
-      <c r="I24" s="102"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
@@ -2966,7 +2958,7 @@
     <row r="25" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="9"/>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
@@ -3010,8 +3002,8 @@
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="75" t="s">
-        <v>265</v>
+      <c r="C27" s="74" t="s">
+        <v>150</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="49"/>
@@ -3034,7 +3026,7 @@
     <row r="28" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="75"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="9"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
@@ -3078,7 +3070,7 @@
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="74" t="s">
         <v>151</v>
       </c>
       <c r="D30" s="9"/>
@@ -3102,7 +3094,7 @@
     <row r="31" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="9"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
@@ -3146,8 +3138,8 @@
     <row r="33" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="75" t="s">
-        <v>268</v>
+      <c r="C33" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="49"/>
@@ -3170,7 +3162,7 @@
     <row r="34" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="75"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="9"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
@@ -3214,8 +3206,8 @@
     <row r="36" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="75" t="s">
-        <v>267</v>
+      <c r="C36" s="74" t="s">
+        <v>265</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="49"/>
@@ -3238,7 +3230,7 @@
     <row r="37" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="75"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="9"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
@@ -3306,15 +3298,15 @@
     <row r="40" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="76" t="s">
-        <v>269</v>
+      <c r="C40" s="75" t="s">
+        <v>267</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="49"/>
       <c r="F40" s="49"/>
       <c r="G40" s="49"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="47"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
@@ -3330,7 +3322,7 @@
     <row r="41" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="76"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="9"/>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -3374,8 +3366,8 @@
     <row r="43" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="76" t="s">
-        <v>271</v>
+      <c r="C43" s="75" t="s">
+        <v>269</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="49"/>
@@ -3398,7 +3390,7 @@
     <row r="44" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="9"/>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
@@ -3428,7 +3420,7 @@
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="J45" s="62"/>
-      <c r="K45" s="47"/>
+      <c r="K45" s="62"/>
       <c r="L45" s="47"/>
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
@@ -3442,8 +3434,8 @@
     <row r="46" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="76" t="s">
-        <v>270</v>
+      <c r="C46" s="75" t="s">
+        <v>268</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="49"/>
@@ -3466,7 +3458,7 @@
     <row r="47" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="9"/>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
@@ -3510,8 +3502,8 @@
     <row r="49" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="76" t="s">
-        <v>272</v>
+      <c r="C49" s="75" t="s">
+        <v>270</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="49"/>
@@ -3534,7 +3526,7 @@
     <row r="50" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="76"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="9"/>
       <c r="E50" s="49"/>
       <c r="F50" s="49"/>
@@ -3602,7 +3594,7 @@
     <row r="53" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="70" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="9"/>
@@ -3626,7 +3618,7 @@
     <row r="54" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="74"/>
+      <c r="C54" s="70"/>
       <c r="D54" s="9"/>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
@@ -3653,8 +3645,8 @@
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
       <c r="J55" s="47"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
@@ -3670,8 +3662,8 @@
     <row r="56" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="74" t="s">
-        <v>273</v>
+      <c r="C56" s="70" t="s">
+        <v>271</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="49"/>
@@ -3694,7 +3686,7 @@
     <row r="57" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="9"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
@@ -3722,7 +3714,7 @@
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="47"/>
-      <c r="I58" s="102"/>
+      <c r="I58" s="67"/>
       <c r="J58" s="47"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
@@ -3738,8 +3730,8 @@
     <row r="59" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="74" t="s">
-        <v>274</v>
+      <c r="C59" s="70" t="s">
+        <v>272</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="49"/>
@@ -3762,7 +3754,7 @@
     <row r="60" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="74"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="9"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
@@ -3806,7 +3798,7 @@
     <row r="62" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="70" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="9"/>
@@ -3830,7 +3822,7 @@
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="74"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="9"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -3874,7 +3866,7 @@
     <row r="65" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="71" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7"/>
@@ -3898,7 +3890,7 @@
     <row r="66" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="78"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="7"/>
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
@@ -3970,18 +3962,18 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
       <c r="K69" s="6"/>
       <c r="L69" s="24" t="s">
         <v>63</v>
       </c>
       <c r="M69" s="60"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="77" t="s">
+      <c r="O69" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="77"/>
+      <c r="P69" s="69"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="6"/>
       <c r="S69" s="5"/>
@@ -4010,12 +4002,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4028,12 +4020,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I69:J69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4062,7 +4054,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4073,7 +4065,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4085,7 +4077,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4100,7 +4092,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4152,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4178,7 +4170,7 @@
         <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="39"/>
     </row>
@@ -4190,7 +4182,7 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="42"/>
     </row>
@@ -4241,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4286,16 +4278,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="86" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -4304,14 +4296,14 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="31" t="s">
         <v>71</v>
       </c>
@@ -4324,12 +4316,12 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="100" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="86" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -4338,14 +4330,14 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="31" t="s">
         <v>73</v>
       </c>
@@ -4356,20 +4348,20 @@
         <v>75</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="83" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -4378,32 +4370,32 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="I8" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="9" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="32" t="s">
         <v>76</v>
       </c>
@@ -4414,16 +4406,16 @@
         <v>79</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="94" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="83" t="s">
         <v>105</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -4432,14 +4424,14 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="32" t="s">
         <v>107</v>
       </c>
@@ -4452,8 +4444,8 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="32" t="s">
         <v>66</v>
       </c>
@@ -4468,12 +4460,12 @@
         <v>81</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="32" t="s">
         <v>68</v>
       </c>
@@ -4490,8 +4482,8 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="92"/>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="83" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -4512,40 +4504,40 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="94" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="94" t="s">
+      <c r="H15" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="83" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="92"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="92"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="32" t="s">
         <v>93</v>
       </c>
@@ -4566,128 +4558,128 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="92"/>
-      <c r="C18" s="91" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="94" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="F18" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>243</v>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>242</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="32" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="32" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="32" t="s">
-        <v>248</v>
-      </c>
       <c r="G20" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>251</v>
-      </c>
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="94" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E23" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="F23" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>263</v>
-      </c>
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="94" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="83" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="32" t="s">
@@ -4702,10 +4694,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="32" t="s">
         <v>99</v>
       </c>
@@ -4718,12 +4710,12 @@
       <c r="I25" s="32"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="94" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="83" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="32" t="s">
@@ -4738,10 +4730,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="32" t="s">
         <v>117</v>
       </c>
@@ -4754,8 +4746,8 @@
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="32" t="s">
         <v>119</v>
       </c>
@@ -4772,10 +4764,10 @@
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="99" t="s">
         <v>143</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -4798,97 +4790,97 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="81" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="97" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>148</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I30" s="33" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>41</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="84"/>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="99" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>148</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>148</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -4896,35 +4888,35 @@
       <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>148</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -4932,351 +4924,351 @@
       <c r="I36" s="33"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="F37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="H37" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="I37" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="I37" s="33" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="81" t="s">
-        <v>181</v>
+      <c r="B38" s="100"/>
+      <c r="C38" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>180</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="33" t="s">
+    </row>
+    <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="33" t="s">
+      <c r="H39" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H39" s="33" t="s">
-        <v>187</v>
-      </c>
       <c r="I39" s="33"/>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="81" t="s">
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="33" t="s">
+      <c r="G40" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="H40" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="H40" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="33" t="s">
+      <c r="G41" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="I41" s="33"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="37" t="s">
         <v>281</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>283</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I42" s="37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="89"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="E43" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="G43" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="H43" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="H43" s="37" t="s">
-        <v>201</v>
-      </c>
       <c r="I43" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="37" t="s">
+    <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="37"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="37" t="s">
+      <c r="H48" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="I47" s="37"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" s="37"/>
-    </row>
-    <row r="49" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="I49" s="37" t="s">
+      <c r="E50" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="37" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="37" t="s">
+      <c r="G50" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="H50" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="37" t="s">
+      <c r="E52" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="90"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="90"/>
+      <c r="C54" s="88" t="s">
         <v>238</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="I53" s="37"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="89"/>
-      <c r="C54" s="88" t="s">
-        <v>239</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>133</v>
@@ -5296,8 +5288,8 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="37" t="s">
         <v>138</v>
       </c>
@@ -5314,25 +5306,25 @@
       <c r="I55" s="37"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="90"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>278</v>
-      </c>
       <c r="F56" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J56" s="63"/>
     </row>
@@ -5345,41 +5337,6 @@
     <row r="65" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="C18:C28"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="C38:C41"/>
@@ -5391,6 +5348,41 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/프로젝트관리.xlsx
+++ b/plan/프로젝트관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="347">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,53 +247,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 회원 로그인 작동여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 장바구니 등록 및 바로 구매 선택 화면 이동
-- 로그인의 경우 해당 상품의 상세 페이지 이동
-- 로그아웃 상태인 경우 로그인 화면 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트(데모발표) 케이스 예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- ajax연동 및 회원가입 불가한 경우 화면이동
-  회원가입 후 화면 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 상품선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 관리자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 관리자 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행지 목록 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spotList.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,18 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행지 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spotSearch.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpotSearchService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,10 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>commentModify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,10 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여행지 관리/ 여행지검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글 페이징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,42 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryRegistrationViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category/categoryRegistration.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryRegistration.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryRegistrationView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryDto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryRegistrationService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,34 +963,6 @@
   </si>
   <si>
     <t>Category/categoryList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryModifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category/categoryModify.j sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryModify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>categoryDelete.co</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryDeleteService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,6 +1096,335 @@
   </si>
   <si>
     <t>admin/adminIdCheck.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원/관리자 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDelet.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그인 작동여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax연동 및 회원가입 불가한 경우 화면이동
+회원가입 후 화면 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax연동 및 최고 관리자 권한이 없을 경우 화면 이동관리자 등록여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 삭제 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 등록 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 수정 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 루트 생성 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 루트 수정 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 루트 리스트 화면보기                                  자세히 보기 시 여행 루트 보기로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 루트 보기                                                  수정버튼이나 삭제 버튼 누르면 화면 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 검색 API를 통해 여행지 검색                        데이터 베이스에 없는 여행지일 경우에만 보이게                     여행지 등록 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 회원이 만든 루트 내 여행에 저장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 목록 출력/검색 기능 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotSearch.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotSearchService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제 작동 여부                                        댓글까지 전부 지워져야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제 작동 여부(대댓글 지워져야함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대댓글 작성 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원 탈퇴 작동 여부                                           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시판 글목록(페이징)                                           탈퇴/강등된 회원의 글은 보이면 안됨                                     글 클릭하면 자세히 보기로 이동                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 회원이 만든 루트 리스트                                탈퇴/강등된 회원의 루트는 보이면 안됨                             클릭하면 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 자세히 보기                                             댓글도 보여야함(페이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 관리자 권한 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 관리자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 관리자 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴/강등 회원 복수 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 강등 작동여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 삭제 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한 종료 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 로그아웃 작동 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 카테고리가 화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 지도 API 작동 여부                                    여행지 검색 후 리스트가 화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 관리자 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 회원 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 목록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 관리자 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 회원 복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 회원 강등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 카테고리 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 여행지 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 여행지 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 여행지 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 여행지 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 여행지 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 여행 루트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 여행 루트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 여행 루트 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. 내 여행 루트 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 타인의 루트 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. 타인의 루트 저장하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. 게시판 글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. 게시글 자세히 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. 게시판 글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 게시판 글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. 게시판 글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. 댓글 달기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32. 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. 대댓글 달기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 목록 출력                                                  회원 검색 후 리스트 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1640,15 +1842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1701,13 +1894,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,140 +2024,167 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1963,6 +2192,24 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1972,53 +2219,23 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2368,7 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +2595,7 @@
     <col min="2" max="2" width="0.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="4" customWidth="1"/>
-    <col min="5" max="18" width="3.125" style="46" customWidth="1"/>
+    <col min="5" max="18" width="3.125" style="44" customWidth="1"/>
     <col min="19" max="19" width="0.75" style="4" customWidth="1"/>
     <col min="20" max="16384" width="2.25" style="4"/>
   </cols>
@@ -2401,47 +2618,47 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
+      <c r="B2" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -2463,7 +2680,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="53"/>
+      <c r="R4" s="51"/>
       <c r="S4" s="14"/>
       <c r="T4" s="5"/>
     </row>
@@ -2482,53 +2699,53 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
       <c r="S5" s="18"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="71" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81" t="s">
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
       <c r="S6" s="20"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="80"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <v>24</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <v>25</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>26</v>
       </c>
       <c r="H7" s="12">
@@ -2564,7 +2781,7 @@
       <c r="R7" s="12">
         <v>7</v>
       </c>
-      <c r="S7" s="54"/>
+      <c r="S7" s="52"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2596,19 +2813,19 @@
         <v>18</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="57"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="6"/>
       <c r="S9" s="15"/>
       <c r="T9" s="5"/>
@@ -2618,19 +2835,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="57"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="6"/>
       <c r="S10" s="15"/>
       <c r="T10" s="5"/>
@@ -2638,23 +2855,23 @@
     <row r="11" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="57"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="6"/>
       <c r="S11" s="15"/>
       <c r="T11" s="5"/>
@@ -2662,21 +2879,21 @@
     <row r="12" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="57"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="6"/>
       <c r="S12" s="15"/>
       <c r="T12" s="5"/>
@@ -2686,19 +2903,19 @@
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="57"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="55"/>
       <c r="R13" s="6"/>
       <c r="S13" s="15"/>
       <c r="T13" s="5"/>
@@ -2706,23 +2923,23 @@
     <row r="14" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="68" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="57"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="6"/>
       <c r="S14" s="15"/>
       <c r="T14" s="5"/>
@@ -2730,21 +2947,21 @@
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="76"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="57"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="6"/>
       <c r="S15" s="15"/>
       <c r="T15" s="5"/>
@@ -2754,19 +2971,19 @@
       <c r="B16" s="6"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="57"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="55"/>
       <c r="R16" s="6"/>
       <c r="S16" s="15"/>
       <c r="T16" s="5"/>
@@ -2774,23 +2991,23 @@
     <row r="17" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="57"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="6"/>
       <c r="S17" s="15"/>
       <c r="T17" s="5"/>
@@ -2798,21 +3015,21 @@
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="57"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="6"/>
       <c r="S18" s="15"/>
       <c r="T18" s="5"/>
@@ -2822,19 +3039,19 @@
       <c r="B19" s="6"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="57"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="55"/>
       <c r="R19" s="6"/>
       <c r="S19" s="15"/>
       <c r="T19" s="5"/>
@@ -2846,19 +3063,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="57"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="55"/>
       <c r="R20" s="6"/>
       <c r="S20" s="15"/>
       <c r="T20" s="5"/>
@@ -2866,23 +3083,23 @@
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="76" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="57"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="55"/>
       <c r="R21" s="6"/>
       <c r="S21" s="15"/>
       <c r="T21" s="5"/>
@@ -2890,21 +3107,21 @@
     <row r="22" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="74"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="57"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="55"/>
       <c r="R22" s="6"/>
       <c r="S22" s="15"/>
       <c r="T22" s="5"/>
@@ -2914,19 +3131,19 @@
       <c r="B23" s="6"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="57"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="55"/>
       <c r="R23" s="6"/>
       <c r="S23" s="15"/>
       <c r="T23" s="5"/>
@@ -2934,23 +3151,23 @@
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="74" t="s">
-        <v>264</v>
+      <c r="C24" s="76" t="s">
+        <v>233</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="57"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="55"/>
       <c r="R24" s="6"/>
       <c r="S24" s="15"/>
       <c r="T24" s="5"/>
@@ -2958,21 +3175,21 @@
     <row r="25" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="74"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="57"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="6"/>
       <c r="S25" s="15"/>
       <c r="T25" s="5"/>
@@ -2982,19 +3199,19 @@
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="57"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="55"/>
       <c r="R26" s="6"/>
       <c r="S26" s="15"/>
       <c r="T26" s="5"/>
@@ -3002,23 +3219,23 @@
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="74" t="s">
-        <v>150</v>
+      <c r="C27" s="76" t="s">
+        <v>137</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="57"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="55"/>
       <c r="R27" s="6"/>
       <c r="S27" s="15"/>
       <c r="T27" s="5"/>
@@ -3026,21 +3243,21 @@
     <row r="28" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="74"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="58"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="56"/>
       <c r="R28" s="10"/>
       <c r="S28" s="15"/>
       <c r="T28" s="5"/>
@@ -3050,19 +3267,19 @@
       <c r="B29" s="6"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="57"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="55"/>
       <c r="R29" s="6"/>
       <c r="S29" s="15"/>
       <c r="T29" s="5"/>
@@ -3070,23 +3287,23 @@
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="74" t="s">
-        <v>151</v>
+      <c r="C30" s="76" t="s">
+        <v>138</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="57"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="55"/>
       <c r="R30" s="6"/>
       <c r="S30" s="15"/>
       <c r="T30" s="5"/>
@@ -3094,21 +3311,21 @@
     <row r="31" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="74"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="57"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="55"/>
       <c r="R31" s="6"/>
       <c r="S31" s="15"/>
       <c r="T31" s="5"/>
@@ -3118,19 +3335,19 @@
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="57"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="55"/>
       <c r="R32" s="6"/>
       <c r="S32" s="15"/>
       <c r="T32" s="5"/>
@@ -3138,23 +3355,23 @@
     <row r="33" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="74" t="s">
-        <v>266</v>
+      <c r="C33" s="76" t="s">
+        <v>235</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="57"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="55"/>
       <c r="R33" s="6"/>
       <c r="S33" s="15"/>
       <c r="T33" s="5"/>
@@ -3162,21 +3379,21 @@
     <row r="34" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="74"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="57"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="55"/>
       <c r="R34" s="6"/>
       <c r="S34" s="15"/>
       <c r="T34" s="5"/>
@@ -3186,19 +3403,19 @@
       <c r="B35" s="6"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="57"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="55"/>
       <c r="R35" s="6"/>
       <c r="S35" s="15"/>
       <c r="T35" s="5"/>
@@ -3206,23 +3423,23 @@
     <row r="36" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="74" t="s">
-        <v>265</v>
+      <c r="C36" s="76" t="s">
+        <v>234</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="57"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="55"/>
       <c r="R36" s="6"/>
       <c r="S36" s="15"/>
       <c r="T36" s="5"/>
@@ -3230,21 +3447,21 @@
     <row r="37" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="74"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="57"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="55"/>
       <c r="R37" s="6"/>
       <c r="S37" s="15"/>
       <c r="T37" s="5"/>
@@ -3254,19 +3471,19 @@
       <c r="B38" s="6"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="57"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="55"/>
       <c r="R38" s="6"/>
       <c r="S38" s="15"/>
       <c r="T38" s="5"/>
@@ -3278,19 +3495,19 @@
         <v>25</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="57"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="55"/>
       <c r="R39" s="6"/>
       <c r="S39" s="15"/>
       <c r="T39" s="5"/>
@@ -3298,23 +3515,23 @@
     <row r="40" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="75" t="s">
-        <v>267</v>
+      <c r="C40" s="77" t="s">
+        <v>236</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="57"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="55"/>
       <c r="R40" s="6"/>
       <c r="S40" s="15"/>
       <c r="T40" s="5"/>
@@ -3322,21 +3539,21 @@
     <row r="41" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="75"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="57"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="55"/>
       <c r="R41" s="6"/>
       <c r="S41" s="15"/>
       <c r="T41" s="5"/>
@@ -3346,19 +3563,19 @@
       <c r="B42" s="6"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="57"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="55"/>
       <c r="R42" s="6"/>
       <c r="S42" s="15"/>
       <c r="T42" s="5"/>
@@ -3366,23 +3583,23 @@
     <row r="43" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="75" t="s">
-        <v>269</v>
+      <c r="C43" s="77" t="s">
+        <v>238</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="57"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="55"/>
       <c r="R43" s="6"/>
       <c r="S43" s="15"/>
       <c r="T43" s="5"/>
@@ -3390,21 +3607,21 @@
     <row r="44" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="75"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="57"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="55"/>
       <c r="R44" s="6"/>
       <c r="S44" s="15"/>
       <c r="T44" s="5"/>
@@ -3414,19 +3631,19 @@
       <c r="B45" s="6"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="57"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="55"/>
       <c r="R45" s="6"/>
       <c r="S45" s="15"/>
       <c r="T45" s="5"/>
@@ -3434,23 +3651,23 @@
     <row r="46" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="75" t="s">
-        <v>268</v>
+      <c r="C46" s="77" t="s">
+        <v>237</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="57"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="55"/>
       <c r="R46" s="6"/>
       <c r="S46" s="15"/>
       <c r="T46" s="5"/>
@@ -3458,21 +3675,21 @@
     <row r="47" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="75"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="57"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="55"/>
       <c r="R47" s="6"/>
       <c r="S47" s="15"/>
       <c r="T47" s="5"/>
@@ -3482,19 +3699,19 @@
       <c r="B48" s="6"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="57"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="55"/>
       <c r="R48" s="6"/>
       <c r="S48" s="15"/>
       <c r="T48" s="5"/>
@@ -3502,23 +3719,23 @@
     <row r="49" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="75" t="s">
-        <v>270</v>
+      <c r="C49" s="77" t="s">
+        <v>239</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="57"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="6"/>
       <c r="S49" s="15"/>
       <c r="T49" s="5"/>
@@ -3526,21 +3743,21 @@
     <row r="50" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="75"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="57"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="55"/>
       <c r="R50" s="6"/>
       <c r="S50" s="15"/>
       <c r="T50" s="5"/>
@@ -3550,19 +3767,19 @@
       <c r="B51" s="6"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="57"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="55"/>
       <c r="R51" s="6"/>
       <c r="S51" s="15"/>
       <c r="T51" s="5"/>
@@ -3574,19 +3791,19 @@
         <v>23</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="57"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="55"/>
       <c r="R52" s="6"/>
       <c r="S52" s="15"/>
       <c r="T52" s="5"/>
@@ -3594,23 +3811,23 @@
     <row r="53" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="75" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="57"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="55"/>
       <c r="R53" s="6"/>
       <c r="S53" s="15"/>
       <c r="T53" s="5"/>
@@ -3618,21 +3835,21 @@
     <row r="54" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="70"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="57"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="55"/>
       <c r="R54" s="6"/>
       <c r="S54" s="15"/>
       <c r="T54" s="5"/>
@@ -3642,19 +3859,19 @@
       <c r="B55" s="6"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="57"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="55"/>
       <c r="R55" s="6"/>
       <c r="S55" s="15"/>
       <c r="T55" s="5"/>
@@ -3662,23 +3879,23 @@
     <row r="56" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="70" t="s">
-        <v>271</v>
+      <c r="C56" s="75" t="s">
+        <v>240</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="57"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="55"/>
       <c r="R56" s="6"/>
       <c r="S56" s="15"/>
       <c r="T56" s="5"/>
@@ -3686,21 +3903,21 @@
     <row r="57" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="70"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="57"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="55"/>
       <c r="R57" s="6"/>
       <c r="S57" s="15"/>
       <c r="T57" s="5"/>
@@ -3710,19 +3927,19 @@
       <c r="B58" s="6"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="57"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="55"/>
       <c r="R58" s="6"/>
       <c r="S58" s="15"/>
       <c r="T58" s="5"/>
@@ -3730,23 +3947,23 @@
     <row r="59" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="70" t="s">
-        <v>272</v>
+      <c r="C59" s="75" t="s">
+        <v>241</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="57"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="55"/>
       <c r="R59" s="6"/>
       <c r="S59" s="15"/>
       <c r="T59" s="5"/>
@@ -3754,21 +3971,21 @@
     <row r="60" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="70"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="57"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="55"/>
       <c r="R60" s="6"/>
       <c r="S60" s="15"/>
       <c r="T60" s="5"/>
@@ -3778,19 +3995,19 @@
       <c r="B61" s="6"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="57"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="55"/>
       <c r="R61" s="6"/>
       <c r="S61" s="15"/>
       <c r="T61" s="5"/>
@@ -3798,23 +4015,23 @@
     <row r="62" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="70" t="s">
-        <v>98</v>
+      <c r="C62" s="75" t="s">
+        <v>89</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="57"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="55"/>
       <c r="R62" s="6"/>
       <c r="S62" s="15"/>
       <c r="T62" s="5"/>
@@ -3822,21 +4039,21 @@
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="70"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="57"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="55"/>
       <c r="R63" s="6"/>
       <c r="S63" s="15"/>
       <c r="T63" s="5"/>
@@ -3846,19 +4063,19 @@
       <c r="B64" s="6"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="57"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="55"/>
       <c r="R64" s="6"/>
       <c r="S64" s="15"/>
       <c r="T64" s="5"/>
@@ -3866,23 +4083,23 @@
     <row r="65" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="79" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="57"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="55"/>
       <c r="R65" s="6"/>
       <c r="S65" s="15"/>
       <c r="T65" s="5"/>
@@ -3890,21 +4107,21 @@
     <row r="66" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="71"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="57"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="55"/>
       <c r="R66" s="6"/>
       <c r="S66" s="15"/>
       <c r="T66" s="5"/>
@@ -3962,18 +4179,18 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
       <c r="K69" s="6"/>
       <c r="L69" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M69" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="M69" s="58"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="P69" s="69"/>
+      <c r="O69" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" s="78"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="6"/>
       <c r="S69" s="5"/>
@@ -4002,12 +4219,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I69:J69"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4020,12 +4237,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4054,7 +4271,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4065,7 +4282,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4077,7 +4294,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4092,7 +4309,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4152,7 +4369,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4164,60 +4381,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="39"/>
+        <v>252</v>
+      </c>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="42"/>
+        <v>253</v>
+      </c>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="41"/>
+        <v>120</v>
+      </c>
+      <c r="D5" s="40"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
@@ -4231,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J65"/>
+  <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4278,1096 +4495,979 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>69</v>
+      <c r="E3" s="101" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="31" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="86" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="101" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>65</v>
+      <c r="C7" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="32" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>105</v>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>96</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="32" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="83" t="s">
-        <v>84</v>
+      <c r="B14" s="98"/>
+      <c r="C14" s="92" t="s">
+        <v>75</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="95"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="83" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="98"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="83" t="s">
+      <c r="F17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="95"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="95"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>101</v>
-      </c>
       <c r="H17" s="32" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="95"/>
-      <c r="C18" s="94" t="s">
-        <v>113</v>
+      <c r="B18" s="98"/>
+      <c r="C18" s="97" t="s">
+        <v>104</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="83" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>89</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="32" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>243</v>
+    <row r="21" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>289</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>249</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="G21" s="32"/>
       <c r="H21" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>258</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>103</v>
+      </c>
       <c r="F22" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>249</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G22" s="32"/>
       <c r="H22" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="I22" s="32"/>
+        <v>106</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="32" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>98</v>
+    <row r="24" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="99" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="85"/>
+      <c r="C28" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="99" t="s">
-        <v>143</v>
-      </c>
+      <c r="G28" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="I29" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="33" t="s">
+      <c r="E31" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="33" t="s">
+      <c r="I31" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="33" t="s">
+      <c r="E33" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="100"/>
-      <c r="C32" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="33" t="s">
+      <c r="G33" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="H33" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="85"/>
+      <c r="C34" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="33"/>
+      <c r="D34" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>169</v>
+      </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>175</v>
-      </c>
+      <c r="H34" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="33" t="s">
         <v>168</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="33" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="33" t="s">
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="G37" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="100"/>
-      <c r="C38" s="99" t="s">
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="90"/>
+      <c r="C39" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" s="33"/>
+      <c r="I39" s="37" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="33" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="E40" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="F40" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="G41" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37" t="s">
-        <v>282</v>
-      </c>
       <c r="I42" s="37" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="90"/>
-      <c r="C43" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>197</v>
-      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>216</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
-      <c r="D44" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>203</v>
+      <c r="D44" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>208</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>215</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="90"/>
       <c r="C45" s="90"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="67" t="s">
+        <v>224</v>
+      </c>
       <c r="F45" s="37" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I45" s="37"/>
+        <v>226</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="90"/>
       <c r="C46" s="90"/>
-      <c r="D46" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="102" t="s">
-        <v>209</v>
+      <c r="D46" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="I46" s="37" t="s">
-        <v>217</v>
-      </c>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="90"/>
       <c r="C47" s="90"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="D47" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>221</v>
+      </c>
       <c r="F47" s="37" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>213</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I47" s="37"/>
     </row>
-    <row r="48" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="90"/>
       <c r="C48" s="90"/>
-      <c r="D48" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>221</v>
+      <c r="D48" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>215</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I48" s="37"/>
     </row>
-    <row r="49" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="38" t="s">
-        <v>239</v>
+      <c r="C49" s="91"/>
+      <c r="D49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
+      <c r="C50" s="66" t="s">
+        <v>293</v>
+      </c>
       <c r="D50" s="37" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>226</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G50" s="37"/>
       <c r="H50" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
+        <v>126</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="91"/>
+      <c r="C51" s="37" t="s">
+        <v>243</v>
+      </c>
       <c r="D51" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>245</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="I51" s="37"/>
+        <v>146</v>
+      </c>
+      <c r="G51" s="37"/>
+      <c r="H51" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="I53" s="37"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="90"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="37"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="89"/>
-      <c r="C56" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" s="37"/>
-      <c r="H56" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="J56" s="63"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="64"/>
-      <c r="E57" s="66"/>
-      <c r="H57" s="66"/>
-    </row>
-    <row r="63" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="103"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F54" s="61"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B28"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="C18:C28"/>
+  <mergeCells count="41">
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -5383,6 +5483,32 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B38:B51"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C39:C49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5392,83 +5518,511 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="26" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
+      <c r="E3" s="106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
+        <v>274</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
+      <c r="D4" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D5" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>61</v>
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="107"/>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="107"/>
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="107"/>
+      <c r="B13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="107"/>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="107"/>
+      <c r="B15" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107"/>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="107"/>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="107"/>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="107"/>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="107" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="107"/>
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="107"/>
+      <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="107"/>
+      <c r="B25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="107"/>
+      <c r="B26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="107"/>
+      <c r="B27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="107"/>
+      <c r="B29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="107"/>
+      <c r="B30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="107"/>
+      <c r="B31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="107"/>
+      <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="107"/>
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="107"/>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="107"/>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plan/프로젝트관리.xlsx
+++ b/plan/프로젝트관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" tabRatio="598" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -2114,6 +2114,42 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2132,110 +2168,74 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2586,7 +2586,7 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -2618,47 +2618,47 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -2709,35 +2709,35 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73" t="s">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
       <c r="S6" s="20"/>
       <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="72"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="21"/>
       <c r="E7" s="43">
         <v>24</v>
@@ -2855,7 +2855,7 @@
     <row r="11" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
@@ -2879,7 +2879,7 @@
     <row r="12" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="74"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="9"/>
       <c r="E12" s="59"/>
       <c r="F12" s="47"/>
@@ -2923,7 +2923,7 @@
     <row r="14" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="80" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="9"/>
@@ -2947,7 +2947,7 @@
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="9"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
@@ -2991,7 +2991,7 @@
     <row r="17" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="77" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9"/>
@@ -3015,7 +3015,7 @@
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="74"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="9"/>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -3083,7 +3083,7 @@
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9"/>
@@ -3107,7 +3107,7 @@
     <row r="22" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="9"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
@@ -3151,7 +3151,7 @@
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="78" t="s">
         <v>233</v>
       </c>
       <c r="D24" s="9"/>
@@ -3175,7 +3175,7 @@
     <row r="25" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="76"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="9"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
@@ -3219,7 +3219,7 @@
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="78" t="s">
         <v>137</v>
       </c>
       <c r="D27" s="9"/>
@@ -3243,7 +3243,7 @@
     <row r="28" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="9"/>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
@@ -3287,7 +3287,7 @@
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="78" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="9"/>
@@ -3311,7 +3311,7 @@
     <row r="31" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="76"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="9"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -3355,7 +3355,7 @@
     <row r="33" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="78" t="s">
         <v>235</v>
       </c>
       <c r="D33" s="9"/>
@@ -3379,7 +3379,7 @@
     <row r="34" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="76"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="9"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -3423,7 +3423,7 @@
     <row r="36" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="78" t="s">
         <v>234</v>
       </c>
       <c r="D36" s="9"/>
@@ -3447,7 +3447,7 @@
     <row r="37" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="76"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="9"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
@@ -3515,7 +3515,7 @@
     <row r="40" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="79" t="s">
         <v>236</v>
       </c>
       <c r="D40" s="9"/>
@@ -3539,7 +3539,7 @@
     <row r="41" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="77"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="9"/>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
@@ -3583,7 +3583,7 @@
     <row r="43" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="79" t="s">
         <v>238</v>
       </c>
       <c r="D43" s="9"/>
@@ -3607,7 +3607,7 @@
     <row r="44" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="77"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="9"/>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
@@ -3651,7 +3651,7 @@
     <row r="46" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="79" t="s">
         <v>237</v>
       </c>
       <c r="D46" s="9"/>
@@ -3675,7 +3675,7 @@
     <row r="47" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="77"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="9"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -3719,7 +3719,7 @@
     <row r="49" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="79" t="s">
         <v>239</v>
       </c>
       <c r="D49" s="9"/>
@@ -3743,7 +3743,7 @@
     <row r="50" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="77"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="9"/>
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
@@ -3811,7 +3811,7 @@
     <row r="53" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="9"/>
@@ -3835,7 +3835,7 @@
     <row r="54" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="75"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="9"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
@@ -3879,7 +3879,7 @@
     <row r="56" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="74" t="s">
         <v>240</v>
       </c>
       <c r="D56" s="9"/>
@@ -3903,7 +3903,7 @@
     <row r="57" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="75"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="9"/>
       <c r="E57" s="47"/>
       <c r="F57" s="47"/>
@@ -3947,7 +3947,7 @@
     <row r="59" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="74" t="s">
         <v>241</v>
       </c>
       <c r="D59" s="9"/>
@@ -3971,7 +3971,7 @@
     <row r="60" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="75"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="9"/>
       <c r="E60" s="47"/>
       <c r="F60" s="47"/>
@@ -4015,7 +4015,7 @@
     <row r="62" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="74" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="9"/>
@@ -4039,7 +4039,7 @@
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="75"/>
+      <c r="C63" s="74"/>
       <c r="D63" s="9"/>
       <c r="E63" s="47"/>
       <c r="F63" s="47"/>
@@ -4083,7 +4083,7 @@
     <row r="65" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="75" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7"/>
@@ -4107,7 +4107,7 @@
     <row r="66" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="79"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="7"/>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
@@ -4179,18 +4179,18 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
       <c r="K69" s="6"/>
       <c r="L69" s="24" t="s">
         <v>54</v>
       </c>
       <c r="M69" s="58"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="78" t="s">
+      <c r="O69" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="P69" s="78"/>
+      <c r="P69" s="73"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="6"/>
       <c r="S69" s="5"/>
@@ -4219,12 +4219,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4237,12 +4237,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I69:J69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4369,7 +4369,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4495,16 +4495,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="90" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -4517,10 +4517,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="31" t="s">
         <v>62</v>
       </c>
@@ -4533,12 +4533,12 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="101" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="90" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -4551,10 +4551,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="31" t="s">
         <v>64</v>
       </c>
@@ -4569,16 +4569,16 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="87" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -4591,10 +4591,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="32" t="s">
         <v>261</v>
       </c>
@@ -4609,10 +4609,10 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="32" t="s">
         <v>67</v>
       </c>
@@ -4627,12 +4627,12 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="92" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="87" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -4645,10 +4645,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="32" t="s">
         <v>98</v>
       </c>
@@ -4661,8 +4661,8 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="32" t="s">
         <v>57</v>
       </c>
@@ -4681,8 +4681,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="32" t="s">
         <v>59</v>
       </c>
@@ -4699,8 +4699,8 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="98"/>
-      <c r="C14" s="92" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="87" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -4721,40 +4721,40 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="92" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="87" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="32" t="s">
         <v>84</v>
       </c>
@@ -4775,8 +4775,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="98"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="98" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="36" t="s">
@@ -4797,12 +4797,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="92" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="87" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -4817,10 +4817,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="32" t="s">
         <v>90</v>
       </c>
@@ -4833,8 +4833,8 @@
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="65" t="s">
         <v>289</v>
       </c>
@@ -4851,12 +4851,12 @@
       <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="92" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="87" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -4871,10 +4871,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="32" t="s">
         <v>108</v>
       </c>
@@ -4887,8 +4887,8 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="32" t="s">
         <v>110</v>
       </c>
@@ -4905,10 +4905,10 @@
       <c r="I24" s="32"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="101" t="s">
         <v>130</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -4931,12 +4931,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="82" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="104" t="s">
         <v>134</v>
       </c>
       <c r="F26" s="33" t="s">
@@ -4953,10 +4953,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="33" t="s">
         <v>140</v>
       </c>
@@ -4969,8 +4969,8 @@
       <c r="I27" s="33"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="102"/>
+      <c r="C28" s="101" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -4993,8 +4993,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="33" t="s">
         <v>144</v>
       </c>
@@ -5015,8 +5015,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="33" t="s">
         <v>163</v>
       </c>
@@ -5029,8 +5029,8 @@
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="33" t="s">
         <v>145</v>
       </c>
@@ -5051,8 +5051,8 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="33" t="s">
         <v>165</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="33" t="s">
         <v>153</v>
       </c>
@@ -5087,14 +5087,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="85"/>
-      <c r="C34" s="84" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="104" t="s">
         <v>167</v>
       </c>
       <c r="F34" s="33" t="s">
@@ -5109,10 +5109,10 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="33" t="s">
         <v>168</v>
       </c>
@@ -5125,12 +5125,12 @@
       <c r="I35" s="33"/>
     </row>
     <row r="36" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="82" t="s">
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="104" t="s">
         <v>175</v>
       </c>
       <c r="F36" s="33" t="s">
@@ -5147,10 +5147,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="33" t="s">
         <v>178</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="I37" s="33"/>
     </row>
     <row r="38" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="92" t="s">
         <v>188</v>
       </c>
       <c r="C38" s="66" t="s">
@@ -5187,8 +5187,8 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="90"/>
-      <c r="C39" s="89" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="92" t="s">
         <v>182</v>
       </c>
       <c r="D39" s="67" t="s">
@@ -5211,12 +5211,12 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="87" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="106" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -5233,10 +5233,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="37" t="s">
         <v>193</v>
       </c>
@@ -5249,12 +5249,12 @@
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="87" t="s">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="106" t="s">
         <v>196</v>
       </c>
       <c r="F42" s="37" t="s">
@@ -5271,10 +5271,10 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="37" t="s">
         <v>205</v>
       </c>
@@ -5287,9 +5287,9 @@
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="87" t="s">
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="106" t="s">
         <v>208</v>
       </c>
       <c r="E44" s="67" t="s">
@@ -5307,9 +5307,9 @@
       <c r="I44" s="37"/>
     </row>
     <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="67" t="s">
         <v>224</v>
       </c>
@@ -5327,8 +5327,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="37" t="s">
         <v>207</v>
       </c>
@@ -5347,8 +5347,8 @@
       <c r="I46" s="37"/>
     </row>
     <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
       <c r="D47" s="37" t="s">
         <v>221</v>
       </c>
@@ -5367,8 +5367,8 @@
       <c r="I47" s="37"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="67" t="s">
         <v>215</v>
       </c>
@@ -5387,8 +5387,8 @@
       <c r="I48" s="37"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="90"/>
-      <c r="C49" s="91"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="37" t="s">
         <v>217</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="I49" s="37"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="90"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="66" t="s">
         <v>293</v>
       </c>
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="91"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="37" t="s">
         <v>243</v>
       </c>
@@ -5449,17 +5449,17 @@
       <c r="I51" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="J51" s="103"/>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="103"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="68"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F54" s="61"/>
@@ -5468,6 +5468,32 @@
     <row r="60" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C39:C49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B38:B51"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C18:C24"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -5483,32 +5509,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B38:B51"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B37"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C39:C49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5520,7 +5520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5532,20 +5532,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -5557,12 +5557,12 @@
       <c r="D3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="108" t="s">
         <v>274</v>
       </c>
       <c r="B4" t="s">
@@ -5574,12 +5574,12 @@
       <c r="D4" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
+      <c r="A5" s="108"/>
       <c r="B5" t="s">
         <v>52</v>
       </c>
@@ -5589,12 +5589,12 @@
       <c r="D5" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" t="s">
         <v>268</v>
       </c>
@@ -5604,12 +5604,12 @@
       <c r="D6" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
+      <c r="A7" s="108"/>
       <c r="B7" t="s">
         <v>269</v>
       </c>
@@ -5619,12 +5619,12 @@
       <c r="D7" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="108" t="s">
         <v>273</v>
       </c>
       <c r="B8" t="s">
@@ -5636,12 +5636,12 @@
       <c r="D8" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" t="s">
         <v>311</v>
       </c>
@@ -5651,12 +5651,12 @@
       <c r="D9" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+      <c r="A10" s="108"/>
       <c r="B10" t="s">
         <v>309</v>
       </c>
@@ -5666,12 +5666,12 @@
       <c r="D10" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" t="s">
         <v>319</v>
       </c>
@@ -5681,12 +5681,12 @@
       <c r="D11" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
+      <c r="A12" s="108"/>
       <c r="B12" t="s">
         <v>322</v>
       </c>
@@ -5696,12 +5696,12 @@
       <c r="D12" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
+      <c r="A13" s="108"/>
       <c r="B13" t="s">
         <v>320</v>
       </c>
@@ -5711,12 +5711,12 @@
       <c r="D13" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
+      <c r="A14" s="108"/>
       <c r="B14" t="s">
         <v>323</v>
       </c>
@@ -5726,13 +5726,13 @@
       <c r="D14" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="105" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="70" t="s">
         <v>324</v>
       </c>
       <c r="C15" t="s">
@@ -5741,7 +5741,7 @@
       <c r="D15" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="71" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5758,12 +5758,12 @@
       <c r="D16" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="108" t="s">
         <v>276</v>
       </c>
       <c r="B17" t="s">
@@ -5775,12 +5775,12 @@
       <c r="D17" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
+      <c r="A18" s="108"/>
       <c r="B18" t="s">
         <v>327</v>
       </c>
@@ -5792,7 +5792,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
+      <c r="A19" s="108"/>
       <c r="B19" t="s">
         <v>328</v>
       </c>
@@ -5804,7 +5804,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
+      <c r="A20" s="108"/>
       <c r="B20" t="s">
         <v>329</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
+      <c r="A21" s="108"/>
       <c r="B21" t="s">
         <v>330</v>
       </c>
@@ -5828,7 +5828,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="108" t="s">
         <v>287</v>
       </c>
       <c r="B22" t="s">
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
+      <c r="A23" s="108"/>
       <c r="B23" t="s">
         <v>332</v>
       </c>
@@ -5854,19 +5854,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
+      <c r="A24" s="108"/>
       <c r="B24" t="s">
         <v>333</v>
       </c>
       <c r="C24" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="72" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
+      <c r="A25" s="108"/>
       <c r="B25" t="s">
         <v>334</v>
       </c>
@@ -5878,7 +5878,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
+      <c r="A26" s="108"/>
       <c r="B26" t="s">
         <v>335</v>
       </c>
@@ -5890,7 +5890,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="107"/>
+      <c r="A27" s="108"/>
       <c r="B27" t="s">
         <v>336</v>
       </c>
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="108" t="s">
         <v>304</v>
       </c>
       <c r="B28" t="s">
@@ -5916,7 +5916,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
+      <c r="A29" s="108"/>
       <c r="B29" t="s">
         <v>338</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="107"/>
+      <c r="A30" s="108"/>
       <c r="B30" t="s">
         <v>339</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
+      <c r="A31" s="108"/>
       <c r="B31" t="s">
         <v>340</v>
       </c>
@@ -5952,19 +5952,19 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
+      <c r="A32" s="108"/>
       <c r="B32" t="s">
         <v>341</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="72" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="108" t="s">
         <v>305</v>
       </c>
       <c r="B33" t="s">
@@ -5978,7 +5978,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
+      <c r="A34" s="108"/>
       <c r="B34" t="s">
         <v>343</v>
       </c>
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
+      <c r="A35" s="108"/>
       <c r="B35" t="s">
         <v>344</v>
       </c>
@@ -6002,7 +6002,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
+      <c r="A36" s="108"/>
       <c r="B36" t="s">
         <v>345</v>
       </c>

--- a/plan/프로젝트관리.xlsx
+++ b/plan/프로젝트관리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="355">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,10 +942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commentList.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1425,6 +1421,42 @@
   </si>
   <si>
     <t>회원 목록 출력                                                  회원 검색 후 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouteDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouteDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StorageDeleteService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2129,54 +2161,105 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,55 +2269,10 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2618,47 +2656,47 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="B2" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
@@ -2709,35 +2747,35 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="77" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85" t="s">
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="20"/>
       <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="84"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="21"/>
       <c r="E7" s="43">
         <v>24</v>
@@ -2855,7 +2893,7 @@
     <row r="11" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="80" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9"/>
@@ -2879,7 +2917,7 @@
     <row r="12" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="77"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="9"/>
       <c r="E12" s="59"/>
       <c r="F12" s="47"/>
@@ -2923,7 +2961,7 @@
     <row r="14" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="9"/>
@@ -2947,7 +2985,7 @@
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="9"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
@@ -2991,7 +3029,7 @@
     <row r="17" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="80" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="9"/>
@@ -3015,7 +3053,7 @@
     <row r="18" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="77"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="9"/>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
@@ -3083,7 +3121,7 @@
     <row r="21" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="9"/>
@@ -3107,7 +3145,7 @@
     <row r="22" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="78"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="9"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
@@ -3151,8 +3189,8 @@
     <row r="24" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="78" t="s">
-        <v>233</v>
+      <c r="C24" s="82" t="s">
+        <v>232</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="47"/>
@@ -3175,7 +3213,7 @@
     <row r="25" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="78"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="9"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
@@ -3219,7 +3257,7 @@
     <row r="27" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="82" t="s">
         <v>137</v>
       </c>
       <c r="D27" s="9"/>
@@ -3243,7 +3281,7 @@
     <row r="28" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="78"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="9"/>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
@@ -3287,7 +3325,7 @@
     <row r="30" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="82" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="9"/>
@@ -3311,7 +3349,7 @@
     <row r="31" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="78"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="9"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -3355,8 +3393,8 @@
     <row r="33" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="78" t="s">
-        <v>235</v>
+      <c r="C33" s="82" t="s">
+        <v>234</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="47"/>
@@ -3379,7 +3417,7 @@
     <row r="34" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="78"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="9"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -3423,8 +3461,8 @@
     <row r="36" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="78" t="s">
-        <v>234</v>
+      <c r="C36" s="82" t="s">
+        <v>233</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="47"/>
@@ -3447,7 +3485,7 @@
     <row r="37" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="78"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="9"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
@@ -3515,8 +3553,8 @@
     <row r="40" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="79" t="s">
-        <v>236</v>
+      <c r="C40" s="83" t="s">
+        <v>235</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="47"/>
@@ -3539,7 +3577,7 @@
     <row r="41" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="79"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="9"/>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
@@ -3583,8 +3621,8 @@
     <row r="43" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="79" t="s">
-        <v>238</v>
+      <c r="C43" s="83" t="s">
+        <v>237</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="47"/>
@@ -3607,7 +3645,7 @@
     <row r="44" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="79"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="9"/>
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
@@ -3651,8 +3689,8 @@
     <row r="46" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="79" t="s">
-        <v>237</v>
+      <c r="C46" s="83" t="s">
+        <v>236</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="47"/>
@@ -3675,7 +3713,7 @@
     <row r="47" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="79"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="9"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -3719,8 +3757,8 @@
     <row r="49" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="79" t="s">
-        <v>239</v>
+      <c r="C49" s="83" t="s">
+        <v>238</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="47"/>
@@ -3743,7 +3781,7 @@
     <row r="50" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="79"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="9"/>
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
@@ -3811,7 +3849,7 @@
     <row r="53" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="81" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="9"/>
@@ -3835,7 +3873,7 @@
     <row r="54" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="74"/>
+      <c r="C54" s="81"/>
       <c r="D54" s="9"/>
       <c r="E54" s="47"/>
       <c r="F54" s="47"/>
@@ -3879,8 +3917,8 @@
     <row r="56" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="74" t="s">
-        <v>240</v>
+      <c r="C56" s="81" t="s">
+        <v>239</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="47"/>
@@ -3903,7 +3941,7 @@
     <row r="57" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="9"/>
       <c r="E57" s="47"/>
       <c r="F57" s="47"/>
@@ -3947,8 +3985,8 @@
     <row r="59" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="74" t="s">
-        <v>241</v>
+      <c r="C59" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="47"/>
@@ -3971,7 +4009,7 @@
     <row r="60" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="74"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="9"/>
       <c r="E60" s="47"/>
       <c r="F60" s="47"/>
@@ -4015,7 +4053,7 @@
     <row r="62" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="81" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="9"/>
@@ -4039,7 +4077,7 @@
     <row r="63" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="74"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="9"/>
       <c r="E63" s="47"/>
       <c r="F63" s="47"/>
@@ -4083,7 +4121,7 @@
     <row r="65" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="7"/>
@@ -4107,7 +4145,7 @@
     <row r="66" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="75"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="7"/>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
@@ -4179,18 +4217,18 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
       <c r="K69" s="6"/>
       <c r="L69" s="24" t="s">
         <v>54</v>
       </c>
       <c r="M69" s="58"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="73" t="s">
+      <c r="O69" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="P69" s="73"/>
+      <c r="P69" s="84"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="6"/>
       <c r="S69" s="5"/>
@@ -4219,12 +4257,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I69:J69"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4237,12 +4275,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,7 +4309,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4282,7 +4320,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +4332,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4347,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4387,7 +4425,7 @@
         <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D1" s="38"/>
     </row>
@@ -4399,7 +4437,7 @@
         <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" s="41"/>
     </row>
@@ -4448,10 +4486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J60"/>
+  <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4495,16 +4533,16 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="107" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -4513,14 +4551,14 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="31" t="s">
         <v>62</v>
       </c>
@@ -4533,12 +4571,12 @@
       <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="107" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -4547,14 +4585,14 @@
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="31" t="s">
         <v>64</v>
       </c>
@@ -4565,20 +4603,20 @@
         <v>66</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="98" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -4587,32 +4625,32 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="H8" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="I8" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="9" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="32" t="s">
         <v>67</v>
       </c>
@@ -4623,16 +4661,16 @@
         <v>70</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="87" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="98" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -4641,14 +4679,14 @@
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="32" t="s">
         <v>98</v>
       </c>
@@ -4661,8 +4699,8 @@
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="32" t="s">
         <v>57</v>
       </c>
@@ -4677,12 +4715,12 @@
         <v>72</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="32" t="s">
         <v>59</v>
       </c>
@@ -4699,8 +4737,8 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="87" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="98" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="32" t="s">
@@ -4721,40 +4759,40 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="87" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="98" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="32" t="s">
         <v>84</v>
       </c>
@@ -4775,34 +4813,34 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="99"/>
-      <c r="C18" s="98" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="103" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="F18" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="87" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="98" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -4817,10 +4855,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="32" t="s">
         <v>90</v>
       </c>
@@ -4833,30 +4871,30 @@
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="87" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="98" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -4871,10 +4909,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="32" t="s">
         <v>108</v>
       </c>
@@ -4887,8 +4925,8 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="32" t="s">
         <v>110</v>
       </c>
@@ -4905,10 +4943,10 @@
       <c r="I24" s="32"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="90" t="s">
         <v>130</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -4918,7 +4956,7 @@
         <v>131</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>92</v>
@@ -4931,12 +4969,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="104" t="s">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="88" t="s">
         <v>134</v>
       </c>
       <c r="F26" s="33" t="s">
@@ -4953,10 +4991,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="33" t="s">
         <v>140</v>
       </c>
@@ -4969,15 +5007,15 @@
       <c r="I27" s="33"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="102"/>
-      <c r="C28" s="101" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>141</v>
@@ -4993,8 +5031,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="33" t="s">
         <v>144</v>
       </c>
@@ -5015,22 +5053,26 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="33" t="s">
         <v>163</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>350</v>
+      </c>
       <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="33" t="s">
         <v>145</v>
       </c>
@@ -5051,22 +5093,26 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="33" t="s">
         <v>165</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="33" t="s">
+        <v>353</v>
+      </c>
       <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="33" t="s">
+        <v>354</v>
+      </c>
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="33" t="s">
         <v>153</v>
       </c>
@@ -5087,14 +5133,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
-      <c r="C34" s="101" t="s">
+      <c r="B34" s="91"/>
+      <c r="C34" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="88" t="s">
         <v>167</v>
       </c>
       <c r="F34" s="33" t="s">
@@ -5109,10 +5155,10 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
       <c r="F35" s="33" t="s">
         <v>168</v>
       </c>
@@ -5125,12 +5171,12 @@
       <c r="I35" s="33"/>
     </row>
     <row r="36" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="104" t="s">
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="88" t="s">
         <v>175</v>
       </c>
       <c r="F36" s="33" t="s">
@@ -5147,10 +5193,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
       <c r="F37" s="33" t="s">
         <v>178</v>
       </c>
@@ -5163,32 +5209,32 @@
       <c r="I37" s="33"/>
     </row>
     <row r="38" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="95" t="s">
         <v>188</v>
       </c>
       <c r="C38" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="E38" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="37" t="s">
         <v>249</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>250</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I38" s="37" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="93"/>
-      <c r="C39" s="92" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="95" t="s">
         <v>182</v>
       </c>
       <c r="D39" s="67" t="s">
@@ -5211,12 +5257,12 @@
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="106" t="s">
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="93" t="s">
         <v>190</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -5233,10 +5279,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="37" t="s">
         <v>193</v>
       </c>
@@ -5249,12 +5295,12 @@
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="106" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="E42" s="106" t="s">
+      <c r="E42" s="93" t="s">
         <v>196</v>
       </c>
       <c r="F42" s="37" t="s">
@@ -5271,10 +5317,10 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="37" t="s">
         <v>205</v>
       </c>
@@ -5287,213 +5333,205 @@
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="106" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>347</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E45" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F45" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G45" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H45" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="67" t="s">
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F46" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G46" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="H45" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="H46" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="37" t="s">
+    <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E47" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F47" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I46" s="37"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>223</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>213</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I47" s="37"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>215</v>
+    <row r="48" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>213</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I48" s="37"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>217</v>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>215</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>213</v>
       </c>
       <c r="H49" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H50" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="I49" s="37"/>
-    </row>
-    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="93"/>
-      <c r="C50" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="37" t="s">
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="96"/>
+      <c r="C51" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="F50" s="37" t="s">
+      <c r="E51" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37" t="s">
+      <c r="G51" s="37"/>
+      <c r="H51" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I50" s="37" t="s">
+      <c r="I51" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="94"/>
-      <c r="C51" s="37" t="s">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="97"/>
+      <c r="C52" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="E52" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="F52" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="37"/>
-      <c r="H51" s="62" t="s">
+      <c r="I52" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="I51" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="J51" s="68"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
       <c r="J52" s="68"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F54" s="61"/>
-    </row>
-    <row r="58" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="68"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F55" s="61"/>
+    </row>
+    <row r="59" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C39:C49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B38:B51"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B37"/>
-    <mergeCell ref="C18:C24"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
@@ -5509,6 +5547,32 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5532,20 +5596,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="A1" s="109" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -5558,12 +5622,12 @@
         <v>49</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
-        <v>274</v>
+      <c r="A4" s="109" t="s">
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -5572,14 +5636,14 @@
         <v>50</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
+      <c r="A5" s="109"/>
       <c r="B5" t="s">
         <v>52</v>
       </c>
@@ -5587,430 +5651,430 @@
         <v>50</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>273</v>
+      <c r="A8" s="109" t="s">
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+      <c r="A11" s="109"/>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="109"/>
+      <c r="B12" t="s">
         <v>321</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" t="s">
-        <v>322</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+      <c r="A14" s="109"/>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" t="s">
         <v>325</v>
       </c>
-      <c r="C16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E17" s="71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="109"/>
+      <c r="B18" t="s">
         <v>326</v>
-      </c>
-      <c r="C17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" t="s">
-        <v>327</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="A20" s="109"/>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="108" t="s">
-        <v>287</v>
+      <c r="A22" s="109" t="s">
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="109"/>
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="109"/>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="109"/>
+      <c r="B26" t="s">
         <v>334</v>
       </c>
-      <c r="C25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="109"/>
+      <c r="B27" t="s">
         <v>335</v>
-      </c>
-      <c r="C26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
-      <c r="B27" t="s">
-        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="108" t="s">
-        <v>304</v>
+      <c r="A28" s="109" t="s">
+        <v>303</v>
       </c>
       <c r="B28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
+      <c r="B29" t="s">
         <v>337</v>
       </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="109"/>
+      <c r="B30" t="s">
         <v>338</v>
-      </c>
-      <c r="C29" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" t="s">
-        <v>339</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
+      <c r="A32" s="109"/>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
-        <v>305</v>
+      <c r="A33" s="109" t="s">
+        <v>304</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
+      <c r="A34" s="109"/>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="A35" s="109"/>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
+      <c r="A36" s="109"/>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
